--- a/p1/Netflix.xlsx
+++ b/p1/Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egdag\Documents\estherlila\p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644C789-4F81-4975-83B3-F6BB04BC0A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3778D8-E588-42BE-84DA-5487C7DC9879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="546">
   <si>
     <t>Treinamento</t>
-  </si>
-  <si>
-    <t>0 irrelevante, 1 relevante, 2 muito relevante</t>
   </si>
   <si>
     <t>saiu da netflix? q sdd de full house! amo muitooo https://t.co/ux4t89lxb2</t>
@@ -1064,9 +1061,6 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>0 irrelevante e 1 relevante</t>
-  </si>
-  <si>
     <t>rt @blogdadireita: min. damares alves quer proibir filme da netflix acusado de sexualizar crianças
 quem for contra, já sabe, né ?
 #lulanac…</t>
@@ -1861,13 +1855,16 @@
   <si>
     <t>rt @phopha55: never say never na netflix dnv e eu surtando sem motivo pq tenho o dvd em casa kk 
 a sasse belieber de 2010-13 segue abalada…</t>
+  </si>
+  <si>
+    <t>Categoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1884,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1924,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1939,6 +1941,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2158,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2173,13 +2178,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2187,7 +2192,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -2195,7 +2200,7 @@
     </row>
     <row r="4" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -2203,7 +2208,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -2211,7 +2216,7 @@
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -2219,7 +2224,7 @@
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -2227,7 +2232,7 @@
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -2235,7 +2240,7 @@
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -2243,7 +2248,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -2251,7 +2256,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -2259,7 +2264,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -2267,7 +2272,7 @@
     </row>
     <row r="13" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -2275,7 +2280,7 @@
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -2283,7 +2288,7 @@
     </row>
     <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -2291,7 +2296,7 @@
     </row>
     <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -2299,7 +2304,7 @@
     </row>
     <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -2307,7 +2312,7 @@
     </row>
     <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -2315,7 +2320,7 @@
     </row>
     <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -2323,7 +2328,7 @@
     </row>
     <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -2331,7 +2336,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -2339,7 +2344,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -2347,7 +2352,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -2355,7 +2360,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2363,7 +2368,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -2371,7 +2376,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -2379,7 +2384,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -2387,7 +2392,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -2395,7 +2400,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -2403,7 +2408,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -2411,7 +2416,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -2419,7 +2424,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -2427,7 +2432,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -2435,7 +2440,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -2443,7 +2448,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -2451,7 +2456,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2459,7 +2464,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -2467,7 +2472,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -2475,7 +2480,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -2483,7 +2488,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -2491,7 +2496,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -2499,7 +2504,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -2507,7 +2512,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -2515,7 +2520,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -2523,7 +2528,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -2531,7 +2536,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -2539,7 +2544,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -2547,7 +2552,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -2555,7 +2560,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -2563,7 +2568,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -2571,7 +2576,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -2579,7 +2584,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -2587,7 +2592,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -2595,7 +2600,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -2603,7 +2608,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -2611,7 +2616,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -2619,7 +2624,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -2627,7 +2632,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -2635,7 +2640,7 @@
     </row>
     <row r="59" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -2643,7 +2648,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -2651,7 +2656,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -2659,7 +2664,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -2667,7 +2672,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -2675,7 +2680,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -2683,7 +2688,7 @@
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -2691,7 +2696,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -2699,7 +2704,7 @@
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -2707,7 +2712,7 @@
     </row>
     <row r="68" spans="1:2" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -2715,7 +2720,7 @@
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
@@ -2723,7 +2728,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -2731,7 +2736,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
@@ -2739,7 +2744,7 @@
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -2747,7 +2752,7 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -2755,7 +2760,7 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -2763,7 +2768,7 @@
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -2771,7 +2776,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -2779,7 +2784,7 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4">
         <v>1</v>
@@ -2787,7 +2792,7 @@
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -2795,7 +2800,7 @@
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -2803,7 +2808,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -2811,7 +2816,7 @@
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -2819,7 +2824,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>2</v>
@@ -2827,7 +2832,7 @@
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -2835,7 +2840,7 @@
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -2843,7 +2848,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
@@ -2851,7 +2856,7 @@
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -2859,7 +2864,7 @@
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
@@ -2867,7 +2872,7 @@
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
@@ -2875,7 +2880,7 @@
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -2883,7 +2888,7 @@
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>2</v>
@@ -2891,7 +2896,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -2899,7 +2904,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
@@ -2907,7 +2912,7 @@
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
@@ -2915,7 +2920,7 @@
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>2</v>
@@ -2923,7 +2928,7 @@
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
@@ -2931,7 +2936,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
@@ -2939,7 +2944,7 @@
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -2947,7 +2952,7 @@
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -2955,7 +2960,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>2</v>
@@ -2963,7 +2968,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4">
         <v>0</v>
@@ -2971,7 +2976,7 @@
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4">
         <v>0</v>
@@ -2979,7 +2984,7 @@
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4">
         <v>0</v>
@@ -2987,7 +2992,7 @@
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
@@ -2995,7 +3000,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4">
         <v>0</v>
@@ -3003,7 +3008,7 @@
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4">
         <v>1</v>
@@ -3011,7 +3016,7 @@
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -3019,7 +3024,7 @@
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
@@ -3027,7 +3032,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>2</v>
@@ -3035,7 +3040,7 @@
     </row>
     <row r="109" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4">
         <v>0</v>
@@ -3043,7 +3048,7 @@
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4">
         <v>0</v>
@@ -3051,7 +3056,7 @@
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4">
         <v>0</v>
@@ -3059,7 +3064,7 @@
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>2</v>
@@ -3067,7 +3072,7 @@
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4">
         <v>0</v>
@@ -3075,7 +3080,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>2</v>
@@ -3083,7 +3088,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4">
         <v>0</v>
@@ -3091,7 +3096,7 @@
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4">
         <v>0</v>
@@ -3099,7 +3104,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4">
         <v>0</v>
@@ -3107,7 +3112,7 @@
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4">
         <v>0</v>
@@ -3115,7 +3120,7 @@
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4">
         <v>0</v>
@@ -3123,7 +3128,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -3131,7 +3136,7 @@
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4">
         <v>0</v>
@@ -3139,7 +3144,7 @@
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4">
         <v>0</v>
@@ -3147,7 +3152,7 @@
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4">
         <v>0</v>
@@ -3155,7 +3160,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -3163,7 +3168,7 @@
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4">
         <v>0</v>
@@ -3171,7 +3176,7 @@
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>2</v>
@@ -3179,7 +3184,7 @@
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4">
         <v>0</v>
@@ -3187,7 +3192,7 @@
     </row>
     <row r="128" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>2</v>
@@ -3195,7 +3200,7 @@
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>2</v>
@@ -3203,7 +3208,7 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4">
         <v>0</v>
@@ -3211,7 +3216,7 @@
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4">
         <v>0</v>
@@ -3219,7 +3224,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4">
         <v>1</v>
@@ -3227,7 +3232,7 @@
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4">
         <v>0</v>
@@ -3235,7 +3240,7 @@
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -3243,7 +3248,7 @@
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4">
         <v>0</v>
@@ -3251,7 +3256,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>2</v>
@@ -3259,7 +3264,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4">
         <v>1</v>
@@ -3267,7 +3272,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4">
         <v>1</v>
@@ -3275,7 +3280,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4">
         <v>0</v>
@@ -3283,7 +3288,7 @@
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>2</v>
@@ -3291,7 +3296,7 @@
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4">
         <v>0</v>
@@ -3299,7 +3304,7 @@
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4">
         <v>0</v>
@@ -3307,7 +3312,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>2</v>
@@ -3315,7 +3320,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4">
         <v>0</v>
@@ -3323,7 +3328,7 @@
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4">
         <v>0</v>
@@ -3331,7 +3336,7 @@
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>2</v>
@@ -3339,7 +3344,7 @@
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4">
         <v>0</v>
@@ -3347,7 +3352,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4">
         <v>0</v>
@@ -3355,7 +3360,7 @@
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -3363,7 +3368,7 @@
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4">
         <v>0</v>
@@ -3371,7 +3376,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4">
         <v>0</v>
@@ -3379,7 +3384,7 @@
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>2</v>
@@ -3387,7 +3392,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4">
         <v>0</v>
@@ -3395,7 +3400,7 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4">
         <v>1</v>
@@ -3403,7 +3408,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="4">
         <v>0</v>
@@ -3411,7 +3416,7 @@
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
@@ -3419,7 +3424,7 @@
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="4">
         <v>0</v>
@@ -3427,7 +3432,7 @@
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="4">
         <v>0</v>
@@ -3435,7 +3440,7 @@
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="4">
         <v>1</v>
@@ -3443,7 +3448,7 @@
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="4">
         <v>0</v>
@@ -3451,7 +3456,7 @@
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4">
         <v>0</v>
@@ -3459,7 +3464,7 @@
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="4">
         <v>0</v>
@@ -3467,7 +3472,7 @@
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4">
         <v>0</v>
@@ -3475,7 +3480,7 @@
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="4">
         <v>0</v>
@@ -3483,7 +3488,7 @@
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="4">
         <v>0</v>
@@ -3491,7 +3496,7 @@
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="4">
         <v>0</v>
@@ -3499,7 +3504,7 @@
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="4">
         <v>0</v>
@@ -3507,7 +3512,7 @@
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4">
         <v>0</v>
@@ -3515,7 +3520,7 @@
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4">
         <v>0</v>
@@ -3523,7 +3528,7 @@
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="4">
         <v>0</v>
@@ -3531,7 +3536,7 @@
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="4">
         <v>0</v>
@@ -3539,7 +3544,7 @@
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4">
         <v>0</v>
@@ -3547,7 +3552,7 @@
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="4">
         <v>0</v>
@@ -3555,7 +3560,7 @@
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>2</v>
@@ -3563,7 +3568,7 @@
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>2</v>
@@ -3571,7 +3576,7 @@
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4">
         <v>0</v>
@@ -3579,7 +3584,7 @@
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" s="4">
         <v>0</v>
@@ -3587,7 +3592,7 @@
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>2</v>
@@ -3595,7 +3600,7 @@
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="4">
         <v>0</v>
@@ -3603,7 +3608,7 @@
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="4">
         <v>0</v>
@@ -3611,7 +3616,7 @@
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="4">
         <v>0</v>
@@ -3619,7 +3624,7 @@
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>2</v>
@@ -3627,7 +3632,7 @@
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>1</v>
@@ -3635,7 +3640,7 @@
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>2</v>
@@ -3643,7 +3648,7 @@
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>1</v>
@@ -3651,7 +3656,7 @@
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="4">
         <v>0</v>
@@ -3659,7 +3664,7 @@
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>2</v>
@@ -3667,7 +3672,7 @@
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="4">
         <v>0</v>
@@ -3675,7 +3680,7 @@
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" s="4">
         <v>0</v>
@@ -3683,7 +3688,7 @@
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" s="4">
         <v>0</v>
@@ -3691,7 +3696,7 @@
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="4">
         <v>0</v>
@@ -3699,7 +3704,7 @@
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="4">
         <v>0</v>
@@ -3707,7 +3712,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" s="4">
         <v>1</v>
@@ -3715,7 +3720,7 @@
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4">
         <v>0</v>
@@ -3723,7 +3728,7 @@
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="4">
         <v>1</v>
@@ -3731,7 +3736,7 @@
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="4">
         <v>0</v>
@@ -3739,7 +3744,7 @@
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>2</v>
@@ -3747,7 +3752,7 @@
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>2</v>
@@ -3755,7 +3760,7 @@
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" s="4">
         <v>0</v>
@@ -3763,7 +3768,7 @@
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="4">
         <v>0</v>
@@ -3771,7 +3776,7 @@
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" s="4">
         <v>0</v>
@@ -3779,7 +3784,7 @@
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" s="4">
         <v>0</v>
@@ -3787,7 +3792,7 @@
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" s="4">
         <v>0</v>
@@ -3795,7 +3800,7 @@
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="4">
         <v>0</v>
@@ -3803,7 +3808,7 @@
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" s="4">
         <v>0</v>
@@ -3811,7 +3816,7 @@
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" s="4">
         <v>0</v>
@@ -3819,7 +3824,7 @@
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" s="4">
         <v>0</v>
@@ -3827,7 +3832,7 @@
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" s="4">
         <v>0</v>
@@ -3835,7 +3840,7 @@
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" s="4">
         <v>0</v>
@@ -3843,7 +3848,7 @@
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" s="4">
         <v>0</v>
@@ -3851,7 +3856,7 @@
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" s="4">
         <v>0</v>
@@ -3859,7 +3864,7 @@
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="4">
         <v>0</v>
@@ -3867,7 +3872,7 @@
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" s="4">
         <v>1</v>
@@ -3875,7 +3880,7 @@
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" s="4">
         <v>0</v>
@@ -3883,7 +3888,7 @@
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="4">
         <v>0</v>
@@ -3891,7 +3896,7 @@
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" s="4">
         <v>0</v>
@@ -3899,7 +3904,7 @@
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="4">
         <v>0</v>
@@ -3907,7 +3912,7 @@
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="4">
         <v>0</v>
@@ -3915,7 +3920,7 @@
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="4">
         <v>0</v>
@@ -3923,7 +3928,7 @@
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="4">
         <v>0</v>
@@ -3931,7 +3936,7 @@
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="4">
         <v>0</v>
@@ -3939,7 +3944,7 @@
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="4">
         <v>0</v>
@@ -3947,7 +3952,7 @@
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>2</v>
@@ -3955,7 +3960,7 @@
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="4">
         <v>0</v>
@@ -3963,7 +3968,7 @@
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" s="4">
         <v>0</v>
@@ -3971,7 +3976,7 @@
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="4">
         <v>0</v>
@@ -3979,7 +3984,7 @@
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="4">
         <v>0</v>
@@ -3987,7 +3992,7 @@
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" s="4">
         <v>1</v>
@@ -3995,7 +4000,7 @@
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" s="4">
         <v>0</v>
@@ -4003,7 +4008,7 @@
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>2</v>
@@ -4011,7 +4016,7 @@
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>2</v>
@@ -4019,7 +4024,7 @@
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" s="4">
         <v>0</v>
@@ -4027,7 +4032,7 @@
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>2</v>
@@ -4035,7 +4040,7 @@
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" s="4">
         <v>1</v>
@@ -4043,7 +4048,7 @@
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" s="4">
         <v>0</v>
@@ -4051,7 +4056,7 @@
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" s="4">
         <v>0</v>
@@ -4059,7 +4064,7 @@
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" s="4">
         <v>0</v>
@@ -4067,7 +4072,7 @@
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" s="4">
         <v>0</v>
@@ -4075,7 +4080,7 @@
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" s="4">
         <v>1</v>
@@ -4083,7 +4088,7 @@
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" s="4">
         <v>0</v>
@@ -4091,7 +4096,7 @@
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" s="4">
         <v>0</v>
@@ -4099,7 +4104,7 @@
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" s="4">
         <v>0</v>
@@ -4107,7 +4112,7 @@
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" s="4">
         <v>1</v>
@@ -4115,7 +4120,7 @@
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" s="4">
         <v>0</v>
@@ -4123,7 +4128,7 @@
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" s="4">
         <v>0</v>
@@ -4131,7 +4136,7 @@
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" s="4">
         <v>0</v>
@@ -4139,7 +4144,7 @@
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" s="4">
         <v>0</v>
@@ -4147,7 +4152,7 @@
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>2</v>
@@ -4155,7 +4160,7 @@
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" s="4">
         <v>0</v>
@@ -4163,7 +4168,7 @@
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>2</v>
@@ -4171,7 +4176,7 @@
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>2</v>
@@ -4179,7 +4184,7 @@
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252" s="4">
         <v>0</v>
@@ -4187,7 +4192,7 @@
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253" s="4">
         <v>0</v>
@@ -4195,7 +4200,7 @@
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" s="4">
         <v>0</v>
@@ -4203,7 +4208,7 @@
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" s="4">
         <v>0</v>
@@ -4211,7 +4216,7 @@
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>2</v>
@@ -4219,7 +4224,7 @@
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257" s="4">
         <v>0</v>
@@ -4227,7 +4232,7 @@
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258" s="4">
         <v>0</v>
@@ -4235,7 +4240,7 @@
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259" s="4">
         <v>0</v>
@@ -4243,7 +4248,7 @@
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" s="4">
         <v>0</v>
@@ -4251,7 +4256,7 @@
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" s="4">
         <v>0</v>
@@ -4259,7 +4264,7 @@
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262" s="4">
         <v>0</v>
@@ -4267,7 +4272,7 @@
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>2</v>
@@ -4275,7 +4280,7 @@
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B264" s="4">
         <v>0</v>
@@ -4283,7 +4288,7 @@
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B265" s="4">
         <v>0</v>
@@ -4291,7 +4296,7 @@
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266" s="4">
         <v>0</v>
@@ -4299,7 +4304,7 @@
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>2</v>
@@ -4307,7 +4312,7 @@
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>2</v>
@@ -4315,7 +4320,7 @@
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>0</v>
@@ -4323,7 +4328,7 @@
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>2</v>
@@ -4331,7 +4336,7 @@
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271" s="4">
         <v>0</v>
@@ -4339,7 +4344,7 @@
     </row>
     <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272" s="4">
         <v>0</v>
@@ -4347,7 +4352,7 @@
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>2</v>
@@ -4355,7 +4360,7 @@
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274" s="4">
         <v>1</v>
@@ -4363,7 +4368,7 @@
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>2</v>
@@ -4371,7 +4376,7 @@
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>2</v>
@@ -4379,7 +4384,7 @@
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277" s="4">
         <v>0</v>
@@ -4387,7 +4392,7 @@
     </row>
     <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278" s="4">
         <v>0</v>
@@ -4395,7 +4400,7 @@
     </row>
     <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>2</v>
@@ -4403,7 +4408,7 @@
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280" s="4">
         <v>0</v>
@@ -4411,7 +4416,7 @@
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281" s="4">
         <v>0</v>
@@ -4419,7 +4424,7 @@
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282" s="4">
         <v>1</v>
@@ -4427,7 +4432,7 @@
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283" s="4">
         <v>1</v>
@@ -4435,7 +4440,7 @@
     </row>
     <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284" s="4">
         <v>0</v>
@@ -4443,7 +4448,7 @@
     </row>
     <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285" s="4">
         <v>1</v>
@@ -4451,7 +4456,7 @@
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>2</v>
@@ -4459,7 +4464,7 @@
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>0</v>
@@ -4467,7 +4472,7 @@
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>2</v>
@@ -4475,7 +4480,7 @@
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289" s="4">
         <v>0</v>
@@ -4483,7 +4488,7 @@
     </row>
     <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290" s="4">
         <v>0</v>
@@ -4491,7 +4496,7 @@
     </row>
     <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>2</v>
@@ -4499,7 +4504,7 @@
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292" s="4">
         <v>0</v>
@@ -4507,7 +4512,7 @@
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>2</v>
@@ -4515,7 +4520,7 @@
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>2</v>
@@ -4523,7 +4528,7 @@
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>1</v>
@@ -4531,7 +4536,7 @@
     </row>
     <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296" s="4">
         <v>0</v>
@@ -4539,7 +4544,7 @@
     </row>
     <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297" s="4">
         <v>0</v>
@@ -4547,7 +4552,7 @@
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298" s="4">
         <v>0</v>
@@ -4555,7 +4560,7 @@
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>2</v>
@@ -4563,7 +4568,7 @@
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>1</v>
@@ -4571,7 +4576,7 @@
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301" s="4">
         <v>0</v>
@@ -7375,7 +7380,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7383,25 +7388,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73.9140625" customWidth="1"/>
-    <col min="2" max="26" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>303</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -7409,7 +7417,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -7417,7 +7425,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -7425,7 +7433,7 @@
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -7433,7 +7441,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -7441,7 +7449,7 @@
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -7449,7 +7457,7 @@
     </row>
     <row r="8" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -7457,7 +7465,7 @@
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -7465,7 +7473,7 @@
     </row>
     <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -7473,7 +7481,7 @@
     </row>
     <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -7481,7 +7489,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -7489,7 +7497,7 @@
     </row>
     <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -7497,7 +7505,7 @@
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -7505,7 +7513,7 @@
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -7513,7 +7521,7 @@
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -7521,7 +7529,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -7529,7 +7537,7 @@
     </row>
     <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -7537,7 +7545,7 @@
     </row>
     <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -7545,7 +7553,7 @@
     </row>
     <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -7553,7 +7561,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -7561,7 +7569,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -7569,7 +7577,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -7577,7 +7585,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -7585,7 +7593,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -7593,7 +7601,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -7601,7 +7609,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -7609,7 +7617,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -7617,7 +7625,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -7625,7 +7633,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -7633,7 +7641,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -7641,7 +7649,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -7649,7 +7657,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -7657,7 +7665,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -7665,7 +7673,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -7673,7 +7681,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -7681,7 +7689,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -7689,7 +7697,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -7697,7 +7705,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -7705,7 +7713,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -7713,7 +7721,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -7721,7 +7729,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -7729,7 +7737,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -7737,7 +7745,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -7745,7 +7753,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -7753,7 +7761,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -7761,7 +7769,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
@@ -7769,7 +7777,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -7777,7 +7785,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -7785,7 +7793,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -7793,7 +7801,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -7801,7 +7809,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -7809,7 +7817,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -7817,7 +7825,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -7825,7 +7833,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -7833,7 +7841,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -7841,7 +7849,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -7849,7 +7857,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -7857,7 +7865,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -7865,7 +7873,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -7873,7 +7881,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -7881,7 +7889,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -7889,7 +7897,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -7897,7 +7905,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -7905,7 +7913,7 @@
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -7913,7 +7921,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -7921,7 +7929,7 @@
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B67" s="2">
         <v>2</v>
@@ -7929,7 +7937,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
@@ -7937,7 +7945,7 @@
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -7945,7 +7953,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -7953,7 +7961,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -7961,7 +7969,7 @@
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -7969,7 +7977,7 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -7977,7 +7985,7 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -7985,7 +7993,7 @@
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -7993,7 +8001,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -8001,7 +8009,7 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -8009,7 +8017,7 @@
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -8017,7 +8025,7 @@
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -8025,7 +8033,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -8033,7 +8041,7 @@
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -8041,7 +8049,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
@@ -8049,7 +8057,7 @@
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
@@ -8057,7 +8065,7 @@
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -8065,7 +8073,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
@@ -8073,7 +8081,7 @@
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -8081,7 +8089,7 @@
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
@@ -8089,7 +8097,7 @@
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B88" s="4">
         <v>1</v>
@@ -8097,7 +8105,7 @@
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -8105,7 +8113,7 @@
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B90" s="2">
         <v>2</v>
@@ -8113,7 +8121,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
@@ -8121,7 +8129,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
@@ -8129,7 +8137,7 @@
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B93" s="4">
         <v>0</v>
@@ -8137,7 +8145,7 @@
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
@@ -8145,7 +8153,7 @@
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
@@ -8153,7 +8161,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
@@ -8161,7 +8169,7 @@
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B97" s="4">
         <v>0</v>
@@ -8169,7 +8177,7 @@
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -8177,7 +8185,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
@@ -8185,7 +8193,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B100" s="4">
         <v>0</v>
@@ -8193,7 +8201,7 @@
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -8201,7 +8209,7 @@
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B102" s="4">
         <v>0</v>
@@ -8209,7 +8217,7 @@
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
@@ -8217,7 +8225,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B104" s="4">
         <v>0</v>
@@ -8225,7 +8233,7 @@
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B105" s="4">
         <v>0</v>
@@ -8233,7 +8241,7 @@
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -8241,7 +8249,7 @@
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
@@ -8249,7 +8257,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B108" s="4">
         <v>0</v>
@@ -8257,7 +8265,7 @@
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B109" s="4">
         <v>0</v>
@@ -8265,7 +8273,7 @@
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B110" s="4">
         <v>0</v>
@@ -8273,7 +8281,7 @@
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B111" s="4">
         <v>0</v>
@@ -8281,7 +8289,7 @@
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B112" s="4">
         <v>0</v>
@@ -8289,7 +8297,7 @@
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B113" s="4">
         <v>0</v>
@@ -8297,7 +8305,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B114" s="4">
         <v>0</v>
@@ -8305,7 +8313,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B115" s="4">
         <v>0</v>
@@ -8313,7 +8321,7 @@
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
@@ -8321,7 +8329,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B117" s="4">
         <v>0</v>
@@ -8329,7 +8337,7 @@
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B118" s="4">
         <v>0</v>
@@ -8337,7 +8345,7 @@
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B119" s="4">
         <v>0</v>
@@ -8345,7 +8353,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -8353,7 +8361,7 @@
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B121" s="4">
         <v>0</v>
@@ -8361,7 +8369,7 @@
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B122" s="4">
         <v>0</v>
@@ -8369,7 +8377,7 @@
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B123" s="4">
         <v>0</v>
@@ -8377,7 +8385,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -8385,7 +8393,7 @@
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B125" s="2">
         <v>2</v>
@@ -8393,7 +8401,7 @@
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B126" s="4">
         <v>0</v>
@@ -8401,7 +8409,7 @@
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="4">
         <v>0</v>
@@ -8409,7 +8417,7 @@
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B128" s="4">
         <v>0</v>
@@ -8417,7 +8425,7 @@
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -8425,7 +8433,7 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
@@ -8433,7 +8441,7 @@
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -8441,7 +8449,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B132" s="4">
         <v>1</v>
@@ -8449,7 +8457,7 @@
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2">
         <v>2</v>
@@ -8457,7 +8465,7 @@
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B134" s="4">
         <v>0</v>
@@ -8465,7 +8473,7 @@
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -8473,7 +8481,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
@@ -8481,7 +8489,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B137" s="2">
         <v>2</v>
@@ -8489,7 +8497,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B138" s="4">
         <v>0</v>
@@ -8497,7 +8505,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B139" s="4">
         <v>0</v>
@@ -8505,7 +8513,7 @@
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B140" s="4">
         <v>0</v>
@@ -8513,7 +8521,7 @@
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B141" s="4">
         <v>1</v>
@@ -8521,7 +8529,7 @@
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B142" s="4">
         <v>0</v>
@@ -8529,7 +8537,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B143" s="2">
         <v>2</v>
@@ -8537,7 +8545,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B144" s="4">
         <v>0</v>
@@ -8545,7 +8553,7 @@
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B145" s="4">
         <v>0</v>
@@ -8553,7 +8561,7 @@
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B146" s="4">
         <v>0</v>
@@ -8561,7 +8569,7 @@
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B147" s="2">
         <v>2</v>
@@ -8569,7 +8577,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B148" s="4">
         <v>1</v>
@@ -8577,7 +8585,7 @@
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -8585,7 +8593,7 @@
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B150" s="4">
         <v>0</v>
@@ -8593,7 +8601,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B151" s="4">
         <v>0</v>
@@ -8601,7 +8609,7 @@
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B152" s="4">
         <v>0</v>
@@ -8609,7 +8617,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B153" s="4">
         <v>0</v>
@@ -8617,7 +8625,7 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B154" s="4">
         <v>0</v>
@@ -8625,7 +8633,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B155" s="4">
         <v>0</v>
@@ -8633,7 +8641,7 @@
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B156" s="4">
         <v>0</v>
@@ -8641,7 +8649,7 @@
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B157" s="4">
         <v>0</v>
@@ -8649,7 +8657,7 @@
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B158" s="4">
         <v>0</v>
@@ -8657,7 +8665,7 @@
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B159" s="4">
         <v>1</v>
@@ -8665,7 +8673,7 @@
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B160" s="2">
         <v>2</v>
@@ -8673,7 +8681,7 @@
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B161" s="4">
         <v>0</v>
@@ -8681,7 +8689,7 @@
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
@@ -8689,7 +8697,7 @@
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B163" s="2">
         <v>2</v>
@@ -8697,7 +8705,7 @@
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B164" s="2">
         <v>1</v>
@@ -8705,7 +8713,7 @@
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B165" s="2">
         <v>2</v>
@@ -8713,7 +8721,7 @@
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B166" s="4">
         <v>0</v>
@@ -8721,7 +8729,7 @@
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B167" s="2">
         <v>2</v>
@@ -8729,7 +8737,7 @@
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B168" s="4">
         <v>0</v>
@@ -8737,7 +8745,7 @@
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B169" s="4">
         <v>0</v>
@@ -8745,7 +8753,7 @@
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B170" s="4">
         <v>0</v>
@@ -8753,7 +8761,7 @@
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B171" s="4">
         <v>0</v>
@@ -8761,7 +8769,7 @@
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B172" s="4">
         <v>0</v>
@@ -8769,7 +8777,7 @@
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B173" s="4">
         <v>0</v>
@@ -8777,7 +8785,7 @@
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B174" s="2">
         <v>2</v>
@@ -8785,7 +8793,7 @@
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B175" s="4">
         <v>0</v>
@@ -8793,7 +8801,7 @@
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B176" s="4">
         <v>0</v>
@@ -8801,7 +8809,7 @@
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B177" s="4">
         <v>0</v>
@@ -8809,7 +8817,7 @@
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B178" s="4">
         <v>0</v>
@@ -8817,7 +8825,7 @@
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B179" s="4">
         <v>1</v>
@@ -8825,7 +8833,7 @@
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B180" s="2">
         <v>2</v>
@@ -8833,7 +8841,7 @@
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B181" s="4">
         <v>0</v>
@@ -8841,7 +8849,7 @@
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B182" s="4">
         <v>0</v>
@@ -8849,7 +8857,7 @@
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B183" s="4">
         <v>0</v>
@@ -8857,7 +8865,7 @@
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B184" s="4">
         <v>0</v>
@@ -8865,7 +8873,7 @@
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B185" s="4">
         <v>0</v>
@@ -8873,7 +8881,7 @@
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B186" s="2">
         <v>2</v>
@@ -8881,7 +8889,7 @@
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B187" s="4">
         <v>0</v>
@@ -8889,7 +8897,7 @@
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B188" s="4">
         <v>0</v>
@@ -8897,7 +8905,7 @@
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B189" s="4">
         <v>0</v>
@@ -8905,7 +8913,7 @@
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B190" s="4">
         <v>1</v>
@@ -8913,7 +8921,7 @@
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B191" s="2">
         <v>2</v>
@@ -8921,7 +8929,7 @@
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B192" s="4">
         <v>1</v>
@@ -8929,7 +8937,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B193" s="4">
         <v>0</v>
@@ -8937,7 +8945,7 @@
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B194" s="4">
         <v>0</v>
@@ -8945,7 +8953,7 @@
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B195" s="4">
         <v>0</v>
@@ -8953,7 +8961,7 @@
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B196" s="4">
         <v>0</v>
@@ -8961,7 +8969,7 @@
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B197" s="2">
         <v>2</v>
@@ -8969,7 +8977,7 @@
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B198" s="4">
         <v>0</v>
@@ -8977,7 +8985,7 @@
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B199" s="2">
         <v>2</v>
@@ -8985,7 +8993,7 @@
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>
@@ -8993,7 +9001,7 @@
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B201" s="2">
         <v>2</v>
@@ -9001,7 +9009,7 @@
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B202" s="4">
         <v>0</v>
@@ -9009,7 +9017,7 @@
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B203" s="4">
         <v>0</v>
@@ -9017,7 +9025,7 @@
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B204" s="4">
         <v>0</v>
@@ -9025,7 +9033,7 @@
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B205" s="4">
         <v>0</v>
@@ -9033,7 +9041,7 @@
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B206" s="2">
         <v>2</v>
@@ -9041,7 +9049,7 @@
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B207" s="4">
         <v>0</v>
@@ -9049,7 +9057,7 @@
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B208" s="2">
         <v>2</v>
@@ -9057,7 +9065,7 @@
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B209" s="4">
         <v>0</v>
@@ -9065,7 +9073,7 @@
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B210" s="4">
         <v>1</v>
@@ -9073,7 +9081,7 @@
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B211" s="4">
         <v>0</v>
@@ -9081,7 +9089,7 @@
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B212" s="4">
         <v>0</v>
@@ -9089,7 +9097,7 @@
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B213" s="4">
         <v>0</v>
@@ -9097,7 +9105,7 @@
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B214" s="4">
         <v>0</v>
@@ -9105,7 +9113,7 @@
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B215" s="2">
         <v>2</v>
@@ -9113,7 +9121,7 @@
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B216" s="2">
         <v>1</v>
@@ -9121,7 +9129,7 @@
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B217" s="4">
         <v>0</v>
@@ -9129,7 +9137,7 @@
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B218" s="2">
         <v>2</v>
@@ -9137,7 +9145,7 @@
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B219" s="4">
         <v>1</v>
@@ -9145,7 +9153,7 @@
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B220" s="4">
         <v>1</v>
@@ -9153,7 +9161,7 @@
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B221" s="2">
         <v>2</v>
@@ -9161,7 +9169,7 @@
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B222" s="4">
         <v>0</v>
@@ -9169,7 +9177,7 @@
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B223" s="4">
         <v>0</v>
@@ -9177,7 +9185,7 @@
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B224" s="4">
         <v>0</v>
@@ -9185,7 +9193,7 @@
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B225" s="2">
         <v>2</v>
@@ -9193,7 +9201,7 @@
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B226" s="4">
         <v>0</v>
@@ -9201,7 +9209,7 @@
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B227" s="4">
         <v>0</v>
@@ -9209,7 +9217,7 @@
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B228" s="2">
         <v>2</v>
@@ -9217,7 +9225,7 @@
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B229" s="2">
         <v>2</v>
@@ -9225,7 +9233,7 @@
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B230" s="4">
         <v>0</v>
@@ -9233,7 +9241,7 @@
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B231" s="4">
         <v>1</v>
@@ -9241,7 +9249,7 @@
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B232" s="4">
         <v>0</v>
@@ -9249,7 +9257,7 @@
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B233" s="2">
         <v>2</v>
@@ -9257,7 +9265,7 @@
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B234" s="4">
         <v>0</v>
@@ -9265,7 +9273,7 @@
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B235" s="4">
         <v>0</v>
@@ -9273,7 +9281,7 @@
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B236" s="4">
         <v>1</v>
@@ -9281,7 +9289,7 @@
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B237" s="2">
         <v>2</v>
@@ -9289,7 +9297,7 @@
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B238" s="4">
         <v>0</v>
@@ -9297,7 +9305,7 @@
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B239" s="2">
         <v>2</v>
@@ -9305,7 +9313,7 @@
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B240" s="2">
         <v>2</v>
@@ -9313,7 +9321,7 @@
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B241" s="2">
         <v>2</v>
@@ -9321,7 +9329,7 @@
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B242" s="2">
         <v>2</v>
@@ -9329,7 +9337,7 @@
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B243" s="2">
         <v>2</v>
@@ -9337,7 +9345,7 @@
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B244" s="2">
         <v>1</v>

--- a/p1/Netflix.xlsx
+++ b/p1/Netflix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egdag\Documents\estherlila\p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3778D8-E588-42BE-84DA-5487C7DC9879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A642133-FE7F-4108-992E-1D731CB11994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/p1/Netflix.xlsx
+++ b/p1/Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egdag\Documents\estherlila\p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A642133-FE7F-4108-992E-1D731CB11994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1FAAD-CE95-415D-ADFE-195076CD6684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2163,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -7388,8 +7388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12377,6 +12377,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>